--- a/assets/cars_data.xlsx
+++ b/assets/cars_data.xlsx
@@ -496,10 +496,8 @@
           <t>48668</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
+      <c r="F2" t="n">
+        <v>4.47</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
@@ -533,10 +531,8 @@
           <t>39985</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.26</t>
-        </is>
+      <c r="F3" t="n">
+        <v>4.26</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
@@ -570,10 +566,8 @@
           <t>33544</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
+      <c r="F4" t="n">
+        <v>4.63</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
@@ -607,10 +601,8 @@
           <t>33422</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
+      <c r="F5" t="n">
+        <v>4.45</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
@@ -644,10 +636,8 @@
           <t>24690</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
+      <c r="F6" t="n">
+        <v>4.44</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
@@ -681,10 +671,8 @@
           <t>24646</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
+      <c r="F7" t="n">
+        <v>4.43</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
@@ -718,10 +706,8 @@
           <t>22130</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
+      <c r="F8" t="n">
+        <v>4.42</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
@@ -755,10 +741,8 @@
           <t>17240</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
+      <c r="F9" t="n">
+        <v>4.43</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
@@ -792,10 +776,8 @@
           <t>17190</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
+      <c r="F10" t="n">
+        <v>4.51</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
@@ -829,10 +811,8 @@
           <t>16657</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
+      <c r="F11" t="n">
+        <v>4.51</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
@@ -866,10 +846,8 @@
           <t>16462</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
+      <c r="F12" t="n">
+        <v>4.46</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
@@ -903,10 +881,8 @@
           <t>16441</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.35</t>
-        </is>
+      <c r="F13" t="n">
+        <v>4.35</v>
       </c>
       <c r="G13" t="inlineStr">
         <is>
@@ -940,10 +916,8 @@
           <t>15230</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.29</t>
-        </is>
+      <c r="F14" t="n">
+        <v>4.29</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
@@ -977,10 +951,8 @@
           <t>13870</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
+      <c r="F15" t="n">
+        <v>4.47</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
@@ -1014,10 +986,8 @@
           <t>13480</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
+      <c r="F16" t="n">
+        <v>4.55</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1051,10 +1021,8 @@
           <t>12965</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
+      <c r="F17" t="n">
+        <v>4.54</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
@@ -1088,10 +1056,8 @@
           <t>12438</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
+      <c r="F18" t="n">
+        <v>4.57</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
@@ -1125,10 +1091,8 @@
           <t>12123</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>4.47</t>
-        </is>
+      <c r="F19" t="n">
+        <v>4.47</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
@@ -1154,7 +1118,7 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>13.98</t>
+          <t>12.98</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
@@ -1162,10 +1126,8 @@
           <t>10832</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
+      <c r="F20" t="n">
+        <v>4.42</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
@@ -1199,10 +1161,8 @@
           <t>10181</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
+      <c r="F21" t="n">
+        <v>4.45</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
@@ -1236,10 +1196,8 @@
           <t>31600</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.58</t>
-        </is>
+      <c r="F22" t="n">
+        <v>4.58</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
@@ -1273,10 +1231,8 @@
           <t>23952</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
+      <c r="F23" t="n">
+        <v>4.46</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
@@ -1310,10 +1266,8 @@
           <t>21258</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
+      <c r="F24" t="n">
+        <v>4.44</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
@@ -1347,10 +1301,8 @@
           <t>17558</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>4.57</t>
-        </is>
+      <c r="F25" t="n">
+        <v>4.57</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
@@ -1384,10 +1336,8 @@
           <t>17000</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
+      <c r="F26" t="n">
+        <v>4.54</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
@@ -1421,10 +1371,8 @@
           <t>16504</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>4.42</t>
-        </is>
+      <c r="F27" t="n">
+        <v>4.42</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
@@ -1458,10 +1406,8 @@
           <t>14257</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
+      <c r="F28" t="n">
+        <v>4.45</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
@@ -1495,10 +1441,8 @@
           <t>14230</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
+      <c r="F29" t="n">
+        <v>4.48</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
@@ -1532,10 +1476,8 @@
           <t>13831</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>4.54</t>
-        </is>
+      <c r="F30" t="n">
+        <v>4.51</v>
       </c>
       <c r="G30" t="inlineStr">
         <is>
@@ -1569,10 +1511,8 @@
           <t>13359</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
+      <c r="F31" t="n">
+        <v>4.42</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
@@ -1606,10 +1546,8 @@
           <t>12940</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>4.50</t>
-        </is>
+      <c r="F32" t="n">
+        <v>4.5</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
@@ -1643,10 +1581,8 @@
           <t>12812</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
+      <c r="F33" t="n">
+        <v>4.4</v>
       </c>
       <c r="G33" t="inlineStr">
         <is>
@@ -1680,10 +1616,8 @@
           <t>12526</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
+      <c r="F34" t="n">
+        <v>4.39</v>
       </c>
       <c r="G34" t="inlineStr">
         <is>
@@ -1717,10 +1651,8 @@
           <t>12429</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>4.41</t>
-        </is>
+      <c r="F35" t="n">
+        <v>4.41</v>
       </c>
       <c r="G35" t="inlineStr">
         <is>
@@ -1754,10 +1686,8 @@
           <t>12400</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>4.44</t>
-        </is>
+      <c r="F36" t="n">
+        <v>4.44</v>
       </c>
       <c r="G36" t="inlineStr">
         <is>
@@ -1791,10 +1721,8 @@
           <t>12000</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
-        <is>
-          <t>4.51</t>
-        </is>
+      <c r="F37" t="n">
+        <v>4.51</v>
       </c>
       <c r="G37" t="inlineStr">
         <is>
@@ -1828,10 +1756,8 @@
           <t>11618</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
+      <c r="F38" t="n">
+        <v>4.53</v>
       </c>
       <c r="G38" t="inlineStr">
         <is>
@@ -1865,10 +1791,8 @@
           <t>11459</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
+      <c r="F39" t="n">
+        <v>4.43</v>
       </c>
       <c r="G39" t="inlineStr">
         <is>
@@ -1902,10 +1826,8 @@
           <t>11130</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>4.55</t>
-        </is>
+      <c r="F40" t="n">
+        <v>4.55</v>
       </c>
       <c r="G40" t="inlineStr">
         <is>
@@ -1939,10 +1861,8 @@
           <t>11122</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
+      <c r="F41" t="n">
+        <v>4.46</v>
       </c>
       <c r="G41" t="inlineStr">
         <is>
